--- a/Finflux Automation Excels/Client/4923-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-writeoff-2.xlsx
+++ b/Finflux Automation Excels/Client/4923-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-writeoff-2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>clickonmorebutton</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Principal</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>Interest</t>
@@ -161,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +184,21 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -233,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -243,22 +255,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,113 +667,113 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>10000</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="13">
         <v>1354.84</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="11">
+      <c r="C2" s="9"/>
+      <c r="D2" s="13">
         <v>8645.16</v>
       </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>395.16</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="9">
+        <v>397.99</v>
+      </c>
+      <c r="B3" s="9">
         <v>145.16</v>
       </c>
-      <c r="C3" s="12">
-        <v>83.75</v>
-      </c>
-      <c r="D3" s="12">
-        <v>166.25</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="C3" s="9">
+        <v>83.72</v>
+      </c>
+      <c r="D3" s="9">
+        <v>169.11</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>300</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>300</v>
       </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -774,7 +787,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,383 +800,380 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="14">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="12">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
+        <v>300</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>300</v>
+      </c>
+      <c r="L2" s="9">
+        <v>300</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42050</v>
+      </c>
+      <c r="D3" s="14">
+        <v>42095</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13">
+        <v>1627.83</v>
+      </c>
+      <c r="G3" s="13">
+        <v>8372.17</v>
+      </c>
+      <c r="H3" s="9">
+        <v>145.16</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1772.99</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1500</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="12">
+        <v>1500</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14">
+        <v>42078</v>
+      </c>
+      <c r="D4" s="14">
+        <v>42095</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13">
+        <v>1641.28</v>
+      </c>
+      <c r="G4" s="13">
+        <v>6730.89</v>
+      </c>
+      <c r="H4" s="9">
+        <v>83.72</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1725</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>83.72</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>31</v>
+      </c>
+      <c r="C5" s="14">
+        <v>42109</v>
+      </c>
+      <c r="D5" s="14">
+        <v>42095</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="13">
+        <v>1657.69</v>
+      </c>
+      <c r="G5" s="13">
+        <v>5073.2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>67.31</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1725</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
         <v>30</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12">
-        <v>300</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12">
-        <v>300</v>
-      </c>
-      <c r="L2" s="12">
-        <v>300</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>45</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C6" s="14">
+        <v>42139</v>
+      </c>
+      <c r="D6" s="14">
         <v>42095</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10">
-        <v>1625</v>
-      </c>
-      <c r="G3" s="10">
-        <v>8375</v>
-      </c>
-      <c r="H3" s="12">
-        <v>145.16</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>1770.16</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1500</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="10">
-        <v>1500</v>
-      </c>
-      <c r="P3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12">
-        <v>28</v>
-      </c>
-      <c r="C4" s="13">
-        <v>42078</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="E6" s="15"/>
+      <c r="F6" s="13">
+        <v>1674.27</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3398.93</v>
+      </c>
+      <c r="H6" s="9">
+        <v>50.73</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1725</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14">
+        <v>42170</v>
+      </c>
+      <c r="D7" s="14">
         <v>42095</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11">
-        <v>1641.25</v>
-      </c>
-      <c r="G4" s="11">
-        <v>6733.75</v>
-      </c>
-      <c r="H4" s="12">
-        <v>83.75</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="E7" s="15"/>
+      <c r="F7" s="13">
+        <v>1691.01</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1707.92</v>
+      </c>
+      <c r="H7" s="9">
+        <v>33.99</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
         <v>1725</v>
       </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
-        <v>83.75</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12">
-        <v>31</v>
-      </c>
-      <c r="C5" s="13">
-        <v>42109</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14">
+        <v>42200</v>
+      </c>
+      <c r="D8" s="14">
         <v>42095</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11">
-        <v>1657.66</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5076.09</v>
-      </c>
-      <c r="H5" s="12">
-        <v>67.34</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="E8" s="15"/>
+      <c r="F8" s="13">
+        <v>1707.92</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
         <v>1725</v>
       </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12">
-        <v>30</v>
-      </c>
-      <c r="C6" s="13">
-        <v>42139</v>
-      </c>
-      <c r="D6" s="13">
-        <v>42095</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11">
-        <v>1674.24</v>
-      </c>
-      <c r="G6" s="11">
-        <v>3401.85</v>
-      </c>
-      <c r="H6" s="12">
-        <v>50.76</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1725</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12">
-        <v>0</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12">
-        <v>31</v>
-      </c>
-      <c r="C7" s="13">
-        <v>42170</v>
-      </c>
-      <c r="D7" s="13">
-        <v>42095</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11">
-        <v>1690.98</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1710.87</v>
-      </c>
-      <c r="H7" s="12">
-        <v>34.020000000000003</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1725</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12">
-        <v>30</v>
-      </c>
-      <c r="C8" s="13">
-        <v>42200</v>
-      </c>
-      <c r="D8" s="13">
-        <v>42095</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11">
-        <v>1710.87</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>14.13</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1725</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12">
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1174,213 +1184,226 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>96</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>56</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="14">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="13">
-        <v>42095</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="13">
+        <v>8814.27</v>
+      </c>
+      <c r="F2" s="13">
+        <v>8645.16</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>95</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="9">
+        <v>83.72</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>8645.16</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>94</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="14">
+        <v>42051</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="11">
-        <v>8811.41</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E4" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1354.84</v>
+      </c>
+      <c r="G4" s="9">
+        <v>145.16</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <v>8645.16</v>
       </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>55</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>93</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="14">
+        <v>42005</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="12">
-        <v>83.75</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>8645.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>54</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="13">
-        <v>42051</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1500</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1354.84</v>
-      </c>
-      <c r="G4" s="12">
-        <v>145.16</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>8645.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>53</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="E5" s="9">
+        <v>300</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>300</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>92</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="14">
         <v>42005</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12">
-        <v>300</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>300</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="E6" s="12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>52</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="13">
-        <v>42005</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
         <v>10000</v>
       </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>10000</v>
-      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Finflux Automation Excels/Client/4923-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-writeoff-2.xlsx
+++ b/Finflux Automation Excels/Client/4923-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-AddTo1stInstallment-writeoff-2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>clickonmorebutton</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Principal</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>Interest</t>
@@ -158,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,21 +187,6 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -245,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -255,23 +243,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,113 +654,113 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>10000</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>1354.84</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="13">
+      <c r="C2" s="14"/>
+      <c r="D2" s="11">
         <v>8645.16</v>
       </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>397.99</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="12">
+        <v>395.16</v>
+      </c>
+      <c r="B3" s="12">
         <v>145.16</v>
       </c>
-      <c r="C3" s="9">
-        <v>83.72</v>
-      </c>
-      <c r="D3" s="9">
-        <v>169.11</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="C3" s="12">
+        <v>83.75</v>
+      </c>
+      <c r="D3" s="12">
+        <v>166.25</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="12">
         <v>300</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="12">
         <v>300</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="A5" s="12">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>0</v>
       </c>
     </row>
@@ -787,7 +774,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,380 +787,383 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12">
+        <v>300</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12">
+        <v>300</v>
+      </c>
+      <c r="L2" s="12">
+        <v>300</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42050</v>
+      </c>
+      <c r="D3" s="13">
+        <v>42095</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10">
+        <v>1625</v>
+      </c>
+      <c r="G3" s="10">
+        <v>8375</v>
+      </c>
+      <c r="H3" s="12">
+        <v>145.16</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1770.16</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1500</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="10">
+        <v>1500</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
         <v>28</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="14">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="12">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9">
-        <v>300</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9">
-        <v>300</v>
-      </c>
-      <c r="L2" s="9">
-        <v>300</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <v>45</v>
-      </c>
-      <c r="C3" s="14">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="C4" s="13">
+        <v>42078</v>
+      </c>
+      <c r="D4" s="13">
         <v>42095</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13">
-        <v>1627.83</v>
-      </c>
-      <c r="G3" s="13">
-        <v>8372.17</v>
-      </c>
-      <c r="H3" s="9">
-        <v>145.16</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1772.99</v>
-      </c>
-      <c r="L3" s="12">
-        <v>1500</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="12">
-        <v>1500</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
-        <v>28</v>
-      </c>
-      <c r="C4" s="14">
-        <v>42078</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="E4" s="12"/>
+      <c r="F4" s="11">
+        <v>1641.25</v>
+      </c>
+      <c r="G4" s="11">
+        <v>6733.75</v>
+      </c>
+      <c r="H4" s="12">
+        <v>83.75</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1725</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <v>83.75</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>31</v>
+      </c>
+      <c r="C5" s="13">
+        <v>42109</v>
+      </c>
+      <c r="D5" s="13">
         <v>42095</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13">
-        <v>1641.28</v>
-      </c>
-      <c r="G4" s="13">
-        <v>6730.89</v>
-      </c>
-      <c r="H4" s="9">
-        <v>83.72</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="E5" s="12"/>
+      <c r="F5" s="11">
+        <v>1657.66</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5076.09</v>
+      </c>
+      <c r="H5" s="12">
+        <v>67.34</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
         <v>1725</v>
       </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9">
-        <v>83.72</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>30</v>
+      </c>
+      <c r="C6" s="13">
+        <v>42139</v>
+      </c>
+      <c r="D6" s="13">
+        <v>42095</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11">
+        <v>1674.24</v>
+      </c>
+      <c r="G6" s="11">
+        <v>3401.85</v>
+      </c>
+      <c r="H6" s="12">
+        <v>50.76</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1725</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
         <v>31</v>
       </c>
-      <c r="C5" s="14">
-        <v>42109</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="C7" s="13">
+        <v>42170</v>
+      </c>
+      <c r="D7" s="13">
         <v>42095</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13">
-        <v>1657.69</v>
-      </c>
-      <c r="G5" s="13">
-        <v>5073.2</v>
-      </c>
-      <c r="H5" s="9">
-        <v>67.31</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="E7" s="12"/>
+      <c r="F7" s="11">
+        <v>1690.98</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1710.87</v>
+      </c>
+      <c r="H7" s="12">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
         <v>1725</v>
       </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
         <v>30</v>
       </c>
-      <c r="C6" s="14">
-        <v>42139</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="C8" s="13">
+        <v>42200</v>
+      </c>
+      <c r="D8" s="13">
         <v>42095</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13">
-        <v>1674.27</v>
-      </c>
-      <c r="G6" s="13">
-        <v>3398.93</v>
-      </c>
-      <c r="H6" s="9">
-        <v>50.73</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="E8" s="12"/>
+      <c r="F8" s="11">
+        <v>1710.87</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>14.13</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
         <v>1725</v>
       </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9">
-        <v>31</v>
-      </c>
-      <c r="C7" s="14">
-        <v>42170</v>
-      </c>
-      <c r="D7" s="14">
-        <v>42095</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13">
-        <v>1691.01</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1707.92</v>
-      </c>
-      <c r="H7" s="9">
-        <v>33.99</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1725</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9">
-        <v>30</v>
-      </c>
-      <c r="C8" s="14">
-        <v>42200</v>
-      </c>
-      <c r="D8" s="14">
-        <v>42095</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13">
-        <v>1707.92</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1725</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1184,226 +1174,213 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>96</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="14">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>56</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="13">
         <v>42095</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="11">
+        <v>8811.41</v>
+      </c>
+      <c r="F2" s="11">
+        <v>8645.16</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>55</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="13">
-        <v>8814.27</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="C3" s="13">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="12">
+        <v>83.75</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
         <v>8645.16</v>
       </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>95</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="14">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>54</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="13">
+        <v>42051</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9">
-        <v>83.72</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="E4" s="10">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1354.84</v>
+      </c>
+      <c r="G4" s="12">
+        <v>145.16</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
         <v>8645.16</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>94</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="14">
-        <v>42051</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1500</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1354.84</v>
-      </c>
-      <c r="G4" s="9">
-        <v>145.16</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>8645.16</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>93</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="14">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>53</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="13">
         <v>42005</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="12">
         <v>300</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
         <v>300</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>10000</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>92</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="14">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>52</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="13">
         <v>42005</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="10">
         <v>10000</v>
       </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
         <v>10000</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
